--- a/data/주소/add_total_fin.shp.xlsx
+++ b/data/주소/add_total_fin.shp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\R-project1\data\주소\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D453A4-457F-4331-9952-B0F86B24473D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF130F-AE30-474F-A088-2DEF2D4990CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240"/>
+    <workbookView xWindow="4410" yWindow="3090" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_total_fin.shp" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,6 @@
     <t>add_total</t>
   </si>
   <si>
-    <t>위도</t>
-  </si>
-  <si>
-    <t>경도</t>
-  </si>
-  <si>
-    <t>한글id</t>
-  </si>
-  <si>
     <t>가로공원로58길</t>
   </si>
   <si>
@@ -1934,12 +1925,23 @@
   </si>
   <si>
     <t>흑석</t>
+  </si>
+  <si>
+    <t>korid</t>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2884,11 +2886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A318" sqref="A318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2907,13 +2909,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>636</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>637</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2921,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>37.533057999999997</v>
@@ -2930,7 +2932,7 @@
         <v>126.82477400000001</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2938,7 +2940,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>128.00364590000001</v>
@@ -2947,7 +2949,7 @@
         <v>37.49306807</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2955,7 +2957,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>126.9023775</v>
@@ -2964,7 +2966,7 @@
         <v>37.470743929999998</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2972,7 +2974,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>126.92141100000001</v>
@@ -2981,7 +2983,7 @@
         <v>37.577742000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2989,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>37.585974</v>
@@ -2998,7 +3000,7 @@
         <v>126.91899600000001</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3006,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>126.9098529</v>
@@ -3015,7 +3017,7 @@
         <v>37.598107229999997</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3023,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>37.507145999999999</v>
@@ -3032,7 +3034,7 @@
         <v>127.02646300000001</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3040,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>127.132565</v>
@@ -3049,7 +3051,7 @@
         <v>37.525914999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3057,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>37.532103999999997</v>
@@ -3066,7 +3068,7 @@
         <v>126.842198</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3074,7 +3076,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>126.8560469</v>
@@ -3083,7 +3085,7 @@
         <v>37.486657309999998</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3091,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>37.588245000000001</v>
@@ -3100,7 +3102,7 @@
         <v>127.029257</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3108,7 +3110,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>37.479666999999999</v>
@@ -3117,7 +3119,7 @@
         <v>127.04653</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3125,7 +3127,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>126.811432</v>
@@ -3134,7 +3136,7 @@
         <v>37.564825999999996</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3142,7 +3144,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>127.146458</v>
@@ -3151,7 +3153,7 @@
         <v>37.497978000000003</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3159,7 +3161,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>37.590097</v>
@@ -3168,7 +3170,7 @@
         <v>127.085492</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3176,7 +3178,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>126.822523</v>
@@ -3185,7 +3187,7 @@
         <v>37.490426759999998</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3193,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>127.05214479999999</v>
@@ -3202,7 +3204,7 @@
         <v>37.591994229999997</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3210,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>37.579137000000003</v>
@@ -3219,7 +3221,7 @@
         <v>126.986718</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3227,7 +3229,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>37.552987999999999</v>
@@ -3236,7 +3238,7 @@
         <v>127.129738</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3244,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>127.01002800000001</v>
@@ -3253,7 +3255,7 @@
         <v>37.503657939999997</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3261,7 +3263,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>37.557521000000001</v>
@@ -3270,7 +3272,7 @@
         <v>127.035104</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3278,7 +3280,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>126.83968419999999</v>
@@ -3287,7 +3289,7 @@
         <v>37.496641859999997</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3295,7 +3297,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>126.8338957</v>
@@ -3304,7 +3306,7 @@
         <v>37.529655060000003</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3312,7 +3314,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>127.0777932</v>
@@ -3321,7 +3323,7 @@
         <v>37.611708790000002</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3329,7 +3331,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>37.503523999999999</v>
@@ -3338,7 +3340,7 @@
         <v>126.889889</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3346,7 +3348,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>126.81199239999999</v>
@@ -3355,7 +3357,7 @@
         <v>37.560594270000003</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3363,7 +3365,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>37.477356</v>
@@ -3372,7 +3374,7 @@
         <v>126.955074</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3380,7 +3382,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>126.92867529999999</v>
@@ -3389,7 +3391,7 @@
         <v>37.48137818</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3397,7 +3399,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <v>37.547150000000002</v>
@@ -3406,7 +3408,7 @@
         <v>127.067735</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3414,7 +3416,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>37.547884000000003</v>
@@ -3423,7 +3425,7 @@
         <v>126.93947300000001</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3431,7 +3433,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>37.487803</v>
@@ -3440,7 +3442,7 @@
         <v>126.88206</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3448,7 +3450,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>37.491787000000002</v>
@@ -3457,7 +3459,7 @@
         <v>126.946907</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3465,7 +3467,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>127.131727</v>
@@ -3474,7 +3476,7 @@
         <v>37.543090999999997</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3482,7 +3484,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>37.499237000000001</v>
@@ -3491,7 +3493,7 @@
         <v>126.931066</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3499,7 +3501,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>37.486749000000003</v>
@@ -3508,7 +3510,7 @@
         <v>126.93944500000001</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3516,7 +3518,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>126.903913</v>
@@ -3525,7 +3527,7 @@
         <v>37.453507999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3533,7 +3535,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>37.548811999999998</v>
@@ -3542,7 +3544,7 @@
         <v>127.021255</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3550,7 +3552,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>127.0786272</v>
@@ -3559,7 +3561,7 @@
         <v>37.563391639999999</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3567,7 +3569,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40">
         <v>127.0239905</v>
@@ -3576,7 +3578,7 @@
         <v>37.604164849999997</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3584,7 +3586,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>126.84188899999999</v>
@@ -3593,7 +3595,7 @@
         <v>37.540502500000002</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3601,7 +3603,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>37.476385999999998</v>
@@ -3610,7 +3612,7 @@
         <v>126.96164899999999</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3618,7 +3620,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>37.566397000000002</v>
@@ -3627,7 +3629,7 @@
         <v>127.02212900000001</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3635,7 +3637,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>126.920033</v>
@@ -3644,7 +3646,7 @@
         <v>37.469839999999998</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3652,7 +3654,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <v>37.473519000000003</v>
@@ -3661,7 +3663,7 @@
         <v>126.918904</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3669,7 +3671,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>37.462837</v>
@@ -3678,7 +3680,7 @@
         <v>126.918267</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3686,7 +3688,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <v>126.895573</v>
@@ -3695,7 +3697,7 @@
         <v>37.478375999999997</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3703,7 +3705,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48">
         <v>37.511826999999997</v>
@@ -3712,7 +3714,7 @@
         <v>126.840417</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3720,7 +3722,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>37.475892999999999</v>
@@ -3729,7 +3731,7 @@
         <v>126.97736500000001</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3737,7 +3739,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <v>37.513153000000003</v>
@@ -3746,7 +3748,7 @@
         <v>126.935833</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3754,7 +3756,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C51">
         <v>127.02265509999999</v>
@@ -3763,7 +3765,7 @@
         <v>37.63705161</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3771,7 +3773,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>37.522204000000002</v>
@@ -3780,7 +3782,7 @@
         <v>126.99348500000001</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3788,7 +3790,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53">
         <v>127.035229</v>
@@ -3797,7 +3799,7 @@
         <v>37.506312000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3805,7 +3807,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C54">
         <v>127.070663</v>
@@ -3814,7 +3816,7 @@
         <v>37.539946999999998</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3822,7 +3824,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C55">
         <v>37.562451000000003</v>
@@ -3831,7 +3833,7 @@
         <v>127.014904</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3839,7 +3841,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C56">
         <v>37.572865</v>
@@ -3848,7 +3850,7 @@
         <v>127.057485</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3856,7 +3858,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C57">
         <v>37.490906000000003</v>
@@ -3865,7 +3867,7 @@
         <v>126.928611</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3873,7 +3875,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C58">
         <v>126.896197</v>
@@ -3882,7 +3884,7 @@
         <v>37.524033000000003</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3890,7 +3892,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C59">
         <v>126.91074399999999</v>
@@ -3899,7 +3901,7 @@
         <v>37.487311169999998</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3907,7 +3909,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C60">
         <v>126.92036400000001</v>
@@ -3916,7 +3918,7 @@
         <v>37.499997999999998</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3924,7 +3926,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C61">
         <v>127.0018326</v>
@@ -3933,7 +3935,7 @@
         <v>37.533420120000002</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -3941,7 +3943,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C62">
         <v>37.468536</v>
@@ -3950,7 +3952,7 @@
         <v>126.937675</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3958,7 +3960,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C63">
         <v>126.94577099999999</v>
@@ -3967,7 +3969,7 @@
         <v>37.556569000000003</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3975,7 +3977,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C64">
         <v>127.0180438</v>
@@ -3984,7 +3986,7 @@
         <v>37.634049439999998</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3992,7 +3994,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C65">
         <v>37.496322999999997</v>
@@ -4001,7 +4003,7 @@
         <v>127.05296300000001</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4009,7 +4011,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C66">
         <v>127.0343345</v>
@@ -4018,7 +4020,7 @@
         <v>37.659595639999999</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -4026,7 +4028,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C67">
         <v>37.502876000000001</v>
@@ -4035,7 +4037,7 @@
         <v>126.900372</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -4043,7 +4045,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C68">
         <v>127.0288197</v>
@@ -4052,7 +4054,7 @@
         <v>37.618727380000003</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4060,7 +4062,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C69">
         <v>127.019537</v>
@@ -4069,7 +4071,7 @@
         <v>37.516374999999996</v>
       </c>
       <c r="E69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -4077,7 +4079,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C70">
         <v>37.508184</v>
@@ -4086,7 +4088,7 @@
         <v>126.904723</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -4094,7 +4096,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C71">
         <v>37.540629000000003</v>
@@ -4103,7 +4105,7 @@
         <v>126.949044</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -4111,7 +4113,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C72">
         <v>37.569609999999997</v>
@@ -4120,7 +4122,7 @@
         <v>126.96106</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -4128,7 +4130,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C73">
         <v>126.915792</v>
@@ -4137,7 +4139,7 @@
         <v>37.54823391</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -4145,7 +4147,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C74">
         <v>126.901454</v>
@@ -4154,7 +4156,7 @@
         <v>37.485050999999999</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4162,7 +4164,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C75">
         <v>126.9920386</v>
@@ -4171,7 +4173,7 @@
         <v>37.569609309999997</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -4179,7 +4181,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C76">
         <v>37.611573999999997</v>
@@ -4188,7 +4190,7 @@
         <v>127.056107</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -4196,7 +4198,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C77">
         <v>126.991562</v>
@@ -4205,7 +4207,7 @@
         <v>37.572668</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -4213,7 +4215,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C78">
         <v>126.91477500000001</v>
@@ -4222,7 +4224,7 @@
         <v>37.555956999999999</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -4230,7 +4232,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C79">
         <v>127.132496</v>
@@ -4239,7 +4241,7 @@
         <v>37.497241000000002</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -4247,7 +4249,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C80">
         <v>127.039157</v>
@@ -4256,7 +4258,7 @@
         <v>37.469672000000003</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -4264,7 +4266,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C81">
         <v>127.0076148</v>
@@ -4273,7 +4275,7 @@
         <v>37.589244700000002</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -4281,7 +4283,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C82">
         <v>37.654307000000003</v>
@@ -4290,7 +4292,7 @@
         <v>127.060636</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -4298,7 +4300,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C83">
         <v>37.492697999999997</v>
@@ -4307,7 +4309,7 @@
         <v>126.98264399999999</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -4315,7 +4317,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C84">
         <v>127.01066</v>
@@ -4324,7 +4326,7 @@
         <v>37.554749000000001</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -4332,7 +4334,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C85">
         <v>37.545921</v>
@@ -4341,7 +4343,7 @@
         <v>126.97868699999999</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4349,7 +4351,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C86">
         <v>37.535879000000001</v>
@@ -4358,7 +4360,7 @@
         <v>127.053448</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -4366,7 +4368,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C87">
         <v>126.9371065</v>
@@ -4375,7 +4377,7 @@
         <v>37.505319280000002</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -4383,7 +4385,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C88">
         <v>37.543685000000004</v>
@@ -4392,7 +4394,7 @@
         <v>126.862296</v>
       </c>
       <c r="E88" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -4400,7 +4402,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C89">
         <v>126.87055429999999</v>
@@ -4409,7 +4411,7 @@
         <v>37.474109759999997</v>
       </c>
       <c r="E89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4417,7 +4419,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C90">
         <v>37.541449999999998</v>
@@ -4426,7 +4428,7 @@
         <v>127.045675</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -4434,7 +4436,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C91">
         <v>127.0391419</v>
@@ -4443,7 +4445,7 @@
         <v>37.473563669999997</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -4451,7 +4453,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C92">
         <v>127.038804</v>
@@ -4460,7 +4462,7 @@
         <v>37.561073</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -4468,7 +4470,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C93">
         <v>127.043836</v>
@@ -4477,7 +4479,7 @@
         <v>37.566609999999997</v>
       </c>
       <c r="E93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -4485,7 +4487,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C94">
         <v>127.1262978</v>
@@ -4494,7 +4496,7 @@
         <v>37.508505249999999</v>
       </c>
       <c r="E94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -4502,7 +4504,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C95">
         <v>126.94439269999999</v>
@@ -4511,7 +4513,7 @@
         <v>37.53786556</v>
       </c>
       <c r="E95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -4519,7 +4521,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C96">
         <v>37.548437999999997</v>
@@ -4528,7 +4530,7 @@
         <v>126.9573</v>
       </c>
       <c r="E96" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -4536,7 +4538,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C97">
         <v>126.9473771</v>
@@ -4545,7 +4547,7 @@
         <v>37.505872539999999</v>
       </c>
       <c r="E97" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -4553,7 +4555,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C98">
         <v>127.0558</v>
@@ -4562,7 +4564,7 @@
         <v>37.587826970000002</v>
       </c>
       <c r="E98" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -4570,7 +4572,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C99">
         <v>126.8981337</v>
@@ -4579,7 +4581,7 @@
         <v>37.55609166</v>
       </c>
       <c r="E99" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -4587,7 +4589,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C100">
         <v>37.545096999999998</v>
@@ -4596,7 +4598,7 @@
         <v>127.01608</v>
       </c>
       <c r="E100" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -4604,7 +4606,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C101">
         <v>127.07549760000001</v>
@@ -4613,7 +4615,7 @@
         <v>37.555693069999997</v>
       </c>
       <c r="E101" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -4621,7 +4623,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C102">
         <v>37.563822000000002</v>
@@ -4630,7 +4632,7 @@
         <v>126.98502999999999</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -4638,7 +4640,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C103">
         <v>37.588740999999999</v>
@@ -4647,7 +4649,7 @@
         <v>126.99511699999999</v>
       </c>
       <c r="E103" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -4655,7 +4657,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C104">
         <v>126.8567884</v>
@@ -4664,7 +4666,7 @@
         <v>37.482633470000003</v>
       </c>
       <c r="E104" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -4672,7 +4674,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C105">
         <v>37.583781000000002</v>
@@ -4681,7 +4683,7 @@
         <v>126.923182</v>
       </c>
       <c r="E105" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -4689,7 +4691,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C106">
         <v>126.91445899999999</v>
@@ -4698,7 +4700,7 @@
         <v>37.568897999999997</v>
       </c>
       <c r="E106" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -4706,7 +4708,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C107">
         <v>126.864909</v>
@@ -4715,7 +4717,7 @@
         <v>37.508972</v>
       </c>
       <c r="E107" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4723,7 +4725,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C108">
         <v>37.550960000000003</v>
@@ -4732,7 +4734,7 @@
         <v>127.02304100000001</v>
       </c>
       <c r="E108" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4740,7 +4742,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C109">
         <v>127.030452</v>
@@ -4749,7 +4751,7 @@
         <v>37.570827000000001</v>
       </c>
       <c r="E109" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4757,7 +4759,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C110">
         <v>37.479185000000001</v>
@@ -4766,7 +4768,7 @@
         <v>126.92685899999999</v>
       </c>
       <c r="E110" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4774,7 +4776,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C111">
         <v>37.474770999999997</v>
@@ -4783,7 +4785,7 @@
         <v>126.91522999999999</v>
       </c>
       <c r="E111" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4791,7 +4793,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C112">
         <v>37.478050000000003</v>
@@ -4800,7 +4802,7 @@
         <v>127.03851299999999</v>
       </c>
       <c r="E112" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4808,7 +4810,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C113">
         <v>127.0123048</v>
@@ -4817,7 +4819,7 @@
         <v>37.481390269999999</v>
       </c>
       <c r="E113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4825,7 +4827,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C114">
         <v>37.488016999999999</v>
@@ -4834,7 +4836,7 @@
         <v>126.99334899999999</v>
       </c>
       <c r="E114" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4842,7 +4844,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C115">
         <v>37.559919999999998</v>
@@ -4851,7 +4853,7 @@
         <v>126.902754</v>
       </c>
       <c r="E115" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -4859,7 +4861,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C116">
         <v>37.662534000000001</v>
@@ -4868,7 +4870,7 @@
         <v>127.034583</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -4876,7 +4878,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C117">
         <v>37.565178000000003</v>
@@ -4885,7 +4887,7 @@
         <v>126.816568</v>
       </c>
       <c r="E117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -4893,7 +4895,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C118">
         <v>37.545766</v>
@@ -4902,7 +4904,7 @@
         <v>126.94678500000001</v>
       </c>
       <c r="E118" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -4910,7 +4912,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C119">
         <v>37.592998999999999</v>
@@ -4919,7 +4921,7 @@
         <v>126.965773</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -4927,7 +4929,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C120">
         <v>127.08255490000001</v>
@@ -4936,7 +4938,7 @@
         <v>37.51452063</v>
       </c>
       <c r="E120" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4944,7 +4946,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C121">
         <v>126.889516</v>
@@ -4953,7 +4955,7 @@
         <v>37.466684999999998</v>
       </c>
       <c r="E121" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4961,7 +4963,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C122">
         <v>37.475167999999996</v>
@@ -4970,7 +4972,7 @@
         <v>126.921922</v>
       </c>
       <c r="E122" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -4978,7 +4980,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C123">
         <v>126.882639</v>
@@ -4987,7 +4989,7 @@
         <v>37.481740000000002</v>
       </c>
       <c r="E123" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -4995,7 +4997,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C124">
         <v>127.0113755</v>
@@ -5004,7 +5006,7 @@
         <v>37.606104090000002</v>
       </c>
       <c r="E124" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -5012,7 +5014,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C125">
         <v>127.0229296</v>
@@ -5021,7 +5023,7 @@
         <v>37.576694340000003</v>
       </c>
       <c r="E125" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -5029,7 +5031,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C126">
         <v>37.474572999999999</v>
@@ -5038,7 +5040,7 @@
         <v>126.938675</v>
       </c>
       <c r="E126" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -5046,7 +5048,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C127">
         <v>127.07696249999999</v>
@@ -5055,7 +5057,7 @@
         <v>37.590454350000002</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5063,7 +5065,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C128">
         <v>127.0255846</v>
@@ -5072,7 +5074,7 @@
         <v>37.505117380000002</v>
       </c>
       <c r="E128" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -5080,7 +5082,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C129">
         <v>37.482681999999997</v>
@@ -5089,7 +5091,7 @@
         <v>126.946416</v>
       </c>
       <c r="E129" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -5097,7 +5099,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C130">
         <v>37.603791000000001</v>
@@ -5106,7 +5108,7 @@
         <v>127.08962099999999</v>
       </c>
       <c r="E130" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -5114,7 +5116,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C131">
         <v>126.831732</v>
@@ -5123,7 +5125,7 @@
         <v>37.493293000000001</v>
       </c>
       <c r="E131" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -5131,7 +5133,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C132">
         <v>126.9564391</v>
@@ -5140,7 +5142,7 @@
         <v>37.557826740000003</v>
       </c>
       <c r="E132" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5148,7 +5150,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C133">
         <v>37.581890999999999</v>
@@ -5157,7 +5159,7 @@
         <v>126.984973</v>
       </c>
       <c r="E133" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5165,7 +5167,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C134">
         <v>37.592103999999999</v>
@@ -5174,7 +5176,7 @@
         <v>126.914768</v>
       </c>
       <c r="E134" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5182,7 +5184,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C135">
         <v>127.058119</v>
@@ -5191,7 +5193,7 @@
         <v>37.578319999999998</v>
       </c>
       <c r="E135" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5199,7 +5201,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C136">
         <v>37.560836999999999</v>
@@ -5208,7 +5210,7 @@
         <v>127.045877</v>
       </c>
       <c r="E136" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5216,7 +5218,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C137">
         <v>126.9560927</v>
@@ -5225,7 +5227,7 @@
         <v>37.495236429999999</v>
       </c>
       <c r="E137" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5233,7 +5235,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C138">
         <v>127.01519999999999</v>
@@ -5242,7 +5244,7 @@
         <v>37.494180999999998</v>
       </c>
       <c r="E138" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -5250,7 +5252,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C139">
         <v>37.497616999999998</v>
@@ -5259,7 +5261,7 @@
         <v>126.997637</v>
       </c>
       <c r="E139" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -5267,7 +5269,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C140">
         <v>127.02009099999999</v>
@@ -5276,7 +5278,7 @@
         <v>37.639097</v>
       </c>
       <c r="E140" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -5284,7 +5286,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C141">
         <v>127.0069084</v>
@@ -5293,7 +5295,7 @@
         <v>37.587734159999997</v>
       </c>
       <c r="E141" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -5301,7 +5303,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C142">
         <v>37.506666000000003</v>
@@ -5310,7 +5312,7 @@
         <v>127.056594</v>
       </c>
       <c r="E142" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -5318,7 +5320,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C143">
         <v>37.607129</v>
@@ -5327,7 +5329,7 @@
         <v>127.02369</v>
       </c>
       <c r="E143" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5335,7 +5337,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C144">
         <v>37.575079000000002</v>
@@ -5344,7 +5346,7 @@
         <v>126.986873</v>
       </c>
       <c r="E144" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -5352,7 +5354,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C145">
         <v>37.504286</v>
@@ -5361,7 +5363,7 @@
         <v>127.088044</v>
       </c>
       <c r="E145" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -5369,7 +5371,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C146">
         <v>37.583309999999997</v>
@@ -5378,7 +5380,7 @@
         <v>126.981769</v>
       </c>
       <c r="E146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -5386,7 +5388,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C147">
         <v>37.660508</v>
@@ -5395,7 +5397,7 @@
         <v>127.07289400000001</v>
       </c>
       <c r="E147" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -5403,7 +5405,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C148">
         <v>126.947891</v>
@@ -5412,7 +5414,7 @@
         <v>37.503267999999998</v>
       </c>
       <c r="E148" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -5420,7 +5422,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C149">
         <v>127.12532229999999</v>
@@ -5429,7 +5431,7 @@
         <v>37.550860360000001</v>
       </c>
       <c r="E149" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -5437,7 +5439,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C150">
         <v>37.550615999999998</v>
@@ -5446,7 +5448,7 @@
         <v>127.049718</v>
       </c>
       <c r="E150" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -5454,7 +5456,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C151">
         <v>127.165469</v>
@@ -5463,7 +5465,7 @@
         <v>37.556303</v>
       </c>
       <c r="E151" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -5471,7 +5473,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C152">
         <v>126.8831457</v>
@@ -5480,7 +5482,7 @@
         <v>37.501986389999999</v>
       </c>
       <c r="E152" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -5488,7 +5490,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C153">
         <v>37.504877999999998</v>
@@ -5497,7 +5499,7 @@
         <v>126.962422</v>
       </c>
       <c r="E153" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -5505,7 +5507,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C154">
         <v>37.473242999999997</v>
@@ -5514,7 +5516,7 @@
         <v>126.941079</v>
       </c>
       <c r="E154" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -5522,7 +5524,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C155">
         <v>37.523280999999997</v>
@@ -5531,7 +5533,7 @@
         <v>126.99579799999999</v>
       </c>
       <c r="E155" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -5539,7 +5541,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C156">
         <v>126.9255577</v>
@@ -5548,7 +5550,7 @@
         <v>37.603023739999998</v>
       </c>
       <c r="E156" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -5556,7 +5558,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C157">
         <v>37.547989999999999</v>
@@ -5565,7 +5567,7 @@
         <v>127.04196</v>
       </c>
       <c r="E157" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -5573,7 +5575,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C158">
         <v>37.488897000000001</v>
@@ -5582,7 +5584,7 @@
         <v>126.988919</v>
       </c>
       <c r="E158" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -5590,7 +5592,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C159">
         <v>37.623032000000002</v>
@@ -5599,7 +5601,7 @@
         <v>127.06097200000001</v>
       </c>
       <c r="E159" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -5607,7 +5609,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C160">
         <v>37.504545</v>
@@ -5616,7 +5618,7 @@
         <v>127.048636</v>
       </c>
       <c r="E160" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -5624,7 +5626,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C161">
         <v>37.536087000000002</v>
@@ -5633,7 +5635,7 @@
         <v>126.897926</v>
       </c>
       <c r="E161" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -5641,7 +5643,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C162">
         <v>126.99818139999999</v>
@@ -5650,7 +5652,7 @@
         <v>37.583480260000002</v>
       </c>
       <c r="E162" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -5658,7 +5660,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C163">
         <v>127.120683</v>
@@ -5667,7 +5669,7 @@
         <v>37.530568000000002</v>
       </c>
       <c r="E163" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -5675,7 +5677,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C164">
         <v>37.497767000000003</v>
@@ -5684,7 +5686,7 @@
         <v>126.9359</v>
       </c>
       <c r="E164" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5692,7 +5694,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C165">
         <v>37.537815000000002</v>
@@ -5701,7 +5703,7 @@
         <v>127.05530299999999</v>
       </c>
       <c r="E165" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -5709,7 +5711,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C166">
         <v>126.9094307</v>
@@ -5718,7 +5720,7 @@
         <v>37.558437050000002</v>
       </c>
       <c r="E166" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -5726,7 +5728,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C167">
         <v>127.006513</v>
@@ -5735,7 +5737,7 @@
         <v>37.588701</v>
       </c>
       <c r="E167" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -5743,7 +5745,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C168">
         <v>126.91669400000001</v>
@@ -5752,7 +5754,7 @@
         <v>37.567442</v>
       </c>
       <c r="E168" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -5760,7 +5762,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C169">
         <v>127.05413950000001</v>
@@ -5769,7 +5771,7 @@
         <v>37.536840349999999</v>
       </c>
       <c r="E169" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -5777,7 +5779,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C170">
         <v>127.12092</v>
@@ -5786,7 +5788,7 @@
         <v>37.530281000000002</v>
       </c>
       <c r="E170" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -5794,7 +5796,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C171">
         <v>37.548392999999997</v>
@@ -5803,7 +5805,7 @@
         <v>126.915891</v>
       </c>
       <c r="E171" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -5811,7 +5813,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C172">
         <v>37.609442000000001</v>
@@ -5820,7 +5822,7 @@
         <v>126.974288</v>
       </c>
       <c r="E172" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -5828,7 +5830,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C173">
         <v>37.588631999999997</v>
@@ -5837,7 +5839,7 @@
         <v>126.94741</v>
       </c>
       <c r="E173" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -5845,7 +5847,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C174">
         <v>37.547369000000003</v>
@@ -5854,7 +5856,7 @@
         <v>126.953695</v>
       </c>
       <c r="E174" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -5862,7 +5864,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C175">
         <v>126.97562840000001</v>
@@ -5871,7 +5873,7 @@
         <v>37.557862870000001</v>
       </c>
       <c r="E175" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -5879,7 +5881,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C176">
         <v>127.0169657</v>
@@ -5888,7 +5890,7 @@
         <v>37.625402270000002</v>
       </c>
       <c r="E176" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -5896,7 +5898,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C177">
         <v>127.0067461</v>
@@ -5905,7 +5907,7 @@
         <v>37.613060130000001</v>
       </c>
       <c r="E177" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -5913,7 +5915,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C178">
         <v>127.11680629999999</v>
@@ -5922,7 +5924,7 @@
         <v>37.50324019</v>
       </c>
       <c r="E178" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -5930,7 +5932,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C179">
         <v>37.550958000000001</v>
@@ -5939,7 +5941,7 @@
         <v>127.06804099999999</v>
       </c>
       <c r="E179" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -5947,7 +5949,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C180">
         <v>37.494798000000003</v>
@@ -5956,7 +5958,7 @@
         <v>127.11914400000001</v>
       </c>
       <c r="E180" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5964,7 +5966,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C181">
         <v>126.916614</v>
@@ -5973,7 +5975,7 @@
         <v>37.568944039999998</v>
       </c>
       <c r="E181" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -5981,7 +5983,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C182">
         <v>127.01857459999999</v>
@@ -5990,7 +5992,7 @@
         <v>37.631927869999998</v>
       </c>
       <c r="E182" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -5998,7 +6000,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C183">
         <v>37.549500999999999</v>
@@ -6007,7 +6009,7 @@
         <v>126.94794400000001</v>
       </c>
       <c r="E183" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -6015,7 +6017,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C184">
         <v>37.577171</v>
@@ -6024,7 +6026,7 @@
         <v>127.022024</v>
       </c>
       <c r="E184" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -6032,7 +6034,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C185">
         <v>37.473177</v>
@@ -6041,7 +6043,7 @@
         <v>126.979371</v>
       </c>
       <c r="E185" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -6049,7 +6051,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C186">
         <v>37.662117000000002</v>
@@ -6058,7 +6060,7 @@
         <v>127.02995900000001</v>
       </c>
       <c r="E186" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -6066,7 +6068,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C187">
         <v>126.897909</v>
@@ -6075,7 +6077,7 @@
         <v>37.469231999999998</v>
       </c>
       <c r="E187" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -6083,7 +6085,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C188">
         <v>126.908824</v>
@@ -6092,7 +6094,7 @@
         <v>37.499993000000003</v>
       </c>
       <c r="E188" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -6100,7 +6102,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C189">
         <v>127.096839</v>
@@ -6109,7 +6111,7 @@
         <v>37.599858529999999</v>
       </c>
       <c r="E189" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -6117,7 +6119,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C190">
         <v>37.488045999999997</v>
@@ -6126,7 +6128,7 @@
         <v>126.9105</v>
       </c>
       <c r="E190" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -6134,7 +6136,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C191">
         <v>126.880394</v>
@@ -6143,7 +6145,7 @@
         <v>37.508048000000002</v>
       </c>
       <c r="E191" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -6151,7 +6153,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C192">
         <v>37.484262000000001</v>
@@ -6160,7 +6162,7 @@
         <v>126.929568</v>
       </c>
       <c r="E192" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -6168,7 +6170,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C193">
         <v>37.521444000000002</v>
@@ -6177,7 +6179,7 @@
         <v>126.873777</v>
       </c>
       <c r="E193" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -6185,7 +6187,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C194">
         <v>126.9891638</v>
@@ -6194,7 +6196,7 @@
         <v>37.504991359999998</v>
       </c>
       <c r="E194" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -6202,7 +6204,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C195">
         <v>37.485894000000002</v>
@@ -6211,7 +6213,7 @@
         <v>126.91201100000001</v>
       </c>
       <c r="E195" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -6219,7 +6221,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C196">
         <v>126.925344</v>
@@ -6228,7 +6230,7 @@
         <v>37.483697999999997</v>
       </c>
       <c r="E196" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -6236,7 +6238,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C197">
         <v>126.852659</v>
@@ -6245,7 +6247,7 @@
         <v>37.520068000000002</v>
       </c>
       <c r="E197" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -6253,7 +6255,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C198">
         <v>126.936499</v>
@@ -6262,7 +6264,7 @@
         <v>37.555019999999999</v>
       </c>
       <c r="E198" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -6270,7 +6272,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C199">
         <v>126.98490099999999</v>
@@ -6279,7 +6281,7 @@
         <v>37.546382000000001</v>
       </c>
       <c r="E199" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -6287,7 +6289,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C200">
         <v>127.017443</v>
@@ -6296,7 +6298,7 @@
         <v>37.593201999999998</v>
       </c>
       <c r="E200" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -6304,7 +6306,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C201">
         <v>37.545034999999999</v>
@@ -6313,7 +6315,7 @@
         <v>127.104117</v>
       </c>
       <c r="E201" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -6321,7 +6323,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C202">
         <v>127.023442</v>
@@ -6330,7 +6332,7 @@
         <v>37.579144650000003</v>
       </c>
       <c r="E202" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -6338,7 +6340,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C203">
         <v>37.551895000000002</v>
@@ -6347,7 +6349,7 @@
         <v>127.136207</v>
       </c>
       <c r="E203" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -6355,7 +6357,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C204">
         <v>37.526055999999997</v>
@@ -6364,7 +6366,7 @@
         <v>127.028503</v>
       </c>
       <c r="E204" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -6372,7 +6374,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C205">
         <v>37.582825999999997</v>
@@ -6381,7 +6383,7 @@
         <v>127.03721899999999</v>
       </c>
       <c r="E205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -6389,7 +6391,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C206">
         <v>126.9468463</v>
@@ -6398,7 +6400,7 @@
         <v>37.48426679</v>
       </c>
       <c r="E206" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -6406,7 +6408,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C207">
         <v>37.473711000000002</v>
@@ -6415,7 +6417,7 @@
         <v>126.93338900000001</v>
       </c>
       <c r="E207" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -6423,7 +6425,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C208">
         <v>37.532665999999999</v>
@@ -6432,7 +6434,7 @@
         <v>127.13561</v>
       </c>
       <c r="E208" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -6440,7 +6442,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C209">
         <v>37.470070999999997</v>
@@ -6449,7 +6451,7 @@
         <v>126.93311799999999</v>
       </c>
       <c r="E209" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -6457,7 +6459,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C210">
         <v>37.570341999999997</v>
@@ -6466,7 +6468,7 @@
         <v>126.809273</v>
       </c>
       <c r="E210" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -6474,7 +6476,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C211">
         <v>37.537199000000001</v>
@@ -6483,7 +6485,7 @@
         <v>126.89522599999999</v>
       </c>
       <c r="E211" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -6491,7 +6493,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C212">
         <v>126.9101513</v>
@@ -6500,7 +6502,7 @@
         <v>37.548797329999999</v>
       </c>
       <c r="E212" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -6508,7 +6510,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C213">
         <v>37.473092999999999</v>
@@ -6517,7 +6519,7 @@
         <v>127.04253799999999</v>
       </c>
       <c r="E213" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -6525,7 +6527,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C214">
         <v>37.499614999999999</v>
@@ -6534,7 +6536,7 @@
         <v>127.040845</v>
       </c>
       <c r="E214" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -6542,7 +6544,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C215">
         <v>126.9109698</v>
@@ -6551,7 +6553,7 @@
         <v>37.492580719999999</v>
       </c>
       <c r="E215" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -6559,7 +6561,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C216">
         <v>126.91132159999999</v>
@@ -6568,7 +6570,7 @@
         <v>37.605700409999997</v>
       </c>
       <c r="E216" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -6576,7 +6578,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C217">
         <v>37.608576999999997</v>
@@ -6585,7 +6587,7 @@
         <v>126.91310900000001</v>
       </c>
       <c r="E217" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -6593,7 +6595,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C218">
         <v>126.92957800000001</v>
@@ -6602,7 +6604,7 @@
         <v>37.564988999999997</v>
       </c>
       <c r="E218" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -6610,7 +6612,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C219">
         <v>127.060756</v>
@@ -6619,7 +6621,7 @@
         <v>37.514336999999998</v>
       </c>
       <c r="E219" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -6627,7 +6629,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C220">
         <v>126.88451480000001</v>
@@ -6636,7 +6638,7 @@
         <v>37.523331849999998</v>
       </c>
       <c r="E220" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -6644,7 +6646,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C221">
         <v>126.90704100000001</v>
@@ -6653,7 +6655,7 @@
         <v>37.515369999999997</v>
       </c>
       <c r="E221" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -6661,7 +6663,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C222">
         <v>37.501967999999998</v>
@@ -6670,7 +6672,7 @@
         <v>127.12815999999999</v>
       </c>
       <c r="E222" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6678,7 +6680,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C223">
         <v>126.844553</v>
@@ -6687,7 +6689,7 @@
         <v>37.494247999999999</v>
       </c>
       <c r="E223" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -6695,7 +6697,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C224">
         <v>126.84916200000001</v>
@@ -6704,7 +6706,7 @@
         <v>37.527569999999997</v>
       </c>
       <c r="E224" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -6712,7 +6714,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C225">
         <v>37.609352000000001</v>
@@ -6721,7 +6723,7 @@
         <v>127.034122</v>
       </c>
       <c r="E225" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -6729,7 +6731,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C226">
         <v>37.581491999999997</v>
@@ -6738,7 +6740,7 @@
         <v>126.965683</v>
       </c>
       <c r="E226" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -6746,7 +6748,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C227">
         <v>127.12031399999999</v>
@@ -6755,7 +6757,7 @@
         <v>37.529958999999998</v>
       </c>
       <c r="E227" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -6763,7 +6765,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C228">
         <v>126.92280150000001</v>
@@ -6772,7 +6774,7 @@
         <v>37.547147279999997</v>
       </c>
       <c r="E228" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -6780,7 +6782,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C229">
         <v>127.044836</v>
@@ -6789,7 +6791,7 @@
         <v>37.579937000000001</v>
       </c>
       <c r="E229" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -6797,7 +6799,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C230">
         <v>37.560758</v>
@@ -6806,7 +6808,7 @@
         <v>127.038703</v>
       </c>
       <c r="E230" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -6814,7 +6816,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C231">
         <v>37.563744</v>
@@ -6823,7 +6825,7 @@
         <v>127.05280500000001</v>
       </c>
       <c r="E231" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -6831,7 +6833,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C232">
         <v>127.08731969999999</v>
@@ -6840,7 +6842,7 @@
         <v>37.562616800000001</v>
       </c>
       <c r="E232" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -6848,7 +6850,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C233">
         <v>37.481924999999997</v>
@@ -6857,7 +6859,7 @@
         <v>126.887833</v>
       </c>
       <c r="E233" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -6865,7 +6867,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C234">
         <v>126.9967963</v>
@@ -6874,7 +6876,7 @@
         <v>37.531152229999996</v>
       </c>
       <c r="E234" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6882,7 +6884,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C235">
         <v>127.025328</v>
@@ -6891,7 +6893,7 @@
         <v>37.648899999999998</v>
       </c>
       <c r="E235" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -6899,7 +6901,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C236">
         <v>126.83646899999999</v>
@@ -6908,7 +6910,7 @@
         <v>37.548917000000003</v>
       </c>
       <c r="E236" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -6916,7 +6918,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C237">
         <v>37.506022000000002</v>
@@ -6925,7 +6927,7 @@
         <v>126.910341</v>
       </c>
       <c r="E237" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -6933,7 +6935,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C238">
         <v>126.951391</v>
@@ -6942,7 +6944,7 @@
         <v>37.532873000000002</v>
       </c>
       <c r="E238" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6950,7 +6952,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C239">
         <v>37.554273999999999</v>
@@ -6959,7 +6961,7 @@
         <v>126.91174700000001</v>
       </c>
       <c r="E239" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -6967,7 +6969,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C240">
         <v>126.8436749</v>
@@ -6976,7 +6978,7 @@
         <v>37.521587500000003</v>
       </c>
       <c r="E240" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -6984,7 +6986,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C241">
         <v>37.575899999999997</v>
@@ -6993,7 +6995,7 @@
         <v>126.99815</v>
       </c>
       <c r="E241" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -7001,7 +7003,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C242">
         <v>126.9382501</v>
@@ -7010,7 +7012,7 @@
         <v>37.486423289999998</v>
       </c>
       <c r="E242" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -7018,7 +7020,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C243">
         <v>126.90982289999999</v>
@@ -7027,7 +7029,7 @@
         <v>37.596884600000003</v>
       </c>
       <c r="E243" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -7035,7 +7037,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C244">
         <v>126.8595717</v>
@@ -7044,7 +7046,7 @@
         <v>37.520194400000001</v>
       </c>
       <c r="E244" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -7052,7 +7054,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C245">
         <v>37.587764</v>
@@ -7061,7 +7063,7 @@
         <v>126.918218</v>
       </c>
       <c r="E245" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -7069,7 +7071,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C246">
         <v>127.0568703</v>
@@ -7078,7 +7080,7 @@
         <v>37.591072410000002</v>
       </c>
       <c r="E246" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -7086,7 +7088,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C247">
         <v>126.9537514</v>
@@ -7095,7 +7097,7 @@
         <v>37.529721619999997</v>
       </c>
       <c r="E247" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -7103,7 +7105,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C248">
         <v>37.534537999999998</v>
@@ -7112,7 +7114,7 @@
         <v>126.995571</v>
       </c>
       <c r="E248" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -7120,7 +7122,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C249">
         <v>37.577219999999997</v>
@@ -7129,7 +7131,7 @@
         <v>127.004468</v>
       </c>
       <c r="E249" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -7137,7 +7139,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C250">
         <v>127.012907</v>
@@ -7146,7 +7148,7 @@
         <v>37.636851999999998</v>
       </c>
       <c r="E250" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -7154,7 +7156,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C251">
         <v>37.586274000000003</v>
@@ -7163,7 +7165,7 @@
         <v>127.028729</v>
       </c>
       <c r="E251" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -7171,7 +7173,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C252">
         <v>37.476627999999998</v>
@@ -7180,7 +7182,7 @@
         <v>126.964433</v>
       </c>
       <c r="E252" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -7188,7 +7190,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C253">
         <v>37.493673000000001</v>
@@ -7197,7 +7199,7 @@
         <v>127.079469</v>
       </c>
       <c r="E253" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -7205,7 +7207,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C254">
         <v>37.537112999999998</v>
@@ -7214,7 +7216,7 @@
         <v>127.082396</v>
       </c>
       <c r="E254" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -7222,7 +7224,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C255">
         <v>126.9722056</v>
@@ -7231,7 +7233,7 @@
         <v>37.576712800000003</v>
       </c>
       <c r="E255" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -7239,7 +7241,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C256">
         <v>37.48227</v>
@@ -7248,7 +7250,7 @@
         <v>126.94183700000001</v>
       </c>
       <c r="E256" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -7256,7 +7258,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C257">
         <v>126.9953845</v>
@@ -7265,7 +7267,7 @@
         <v>37.52745968</v>
       </c>
       <c r="E257" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -7273,7 +7275,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C258">
         <v>126.93883700000001</v>
@@ -7282,7 +7284,7 @@
         <v>37.504736999999999</v>
       </c>
       <c r="E258" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -7290,7 +7292,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C259">
         <v>37.605148</v>
@@ -7299,7 +7301,7 @@
         <v>127.04409800000001</v>
       </c>
       <c r="E259" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -7307,7 +7309,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C260">
         <v>127.0422058</v>
@@ -7316,7 +7318,7 @@
         <v>37.613953389999999</v>
       </c>
       <c r="E260" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -7324,7 +7326,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C261">
         <v>37.562302000000003</v>
@@ -7333,7 +7335,7 @@
         <v>127.00834500000001</v>
       </c>
       <c r="E261" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -7341,7 +7343,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C262">
         <v>37.548354000000003</v>
@@ -7350,7 +7352,7 @@
         <v>127.01870599999999</v>
       </c>
       <c r="E262" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -7358,7 +7360,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C263">
         <v>127.0657533</v>
@@ -7367,7 +7369,7 @@
         <v>37.562609299999998</v>
       </c>
       <c r="E263" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -7375,7 +7377,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C264">
         <v>127.050443</v>
@@ -7384,7 +7386,7 @@
         <v>37.579644000000002</v>
       </c>
       <c r="E264" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -7392,7 +7394,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C265">
         <v>37.603726999999999</v>
@@ -7401,7 +7403,7 @@
         <v>127.01170399999999</v>
       </c>
       <c r="E265" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -7409,7 +7411,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C266">
         <v>127.03535050000001</v>
@@ -7418,7 +7420,7 @@
         <v>37.586905479999999</v>
       </c>
       <c r="E266" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -7426,7 +7428,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C267">
         <v>126.9033137</v>
@@ -7435,7 +7437,7 @@
         <v>37.483321429999997</v>
       </c>
       <c r="E267" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -7443,7 +7445,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C268">
         <v>37.57103</v>
@@ -7452,7 +7454,7 @@
         <v>127.001791</v>
       </c>
       <c r="E268" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -7460,7 +7462,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C269">
         <v>37.597634999999997</v>
@@ -7469,7 +7471,7 @@
         <v>127.03506400000001</v>
       </c>
       <c r="E269" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -7477,7 +7479,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C270">
         <v>37.510001000000003</v>
@@ -7486,7 +7488,7 @@
         <v>127.017831</v>
       </c>
       <c r="E270" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -7494,7 +7496,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C271">
         <v>37.602048000000003</v>
@@ -7503,7 +7505,7 @@
         <v>127.073932</v>
       </c>
       <c r="E271" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -7511,7 +7513,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C272">
         <v>37.483373999999998</v>
@@ -7520,7 +7522,7 @@
         <v>126.954127</v>
       </c>
       <c r="E272" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -7528,7 +7530,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C273">
         <v>126.93175340000001</v>
@@ -7537,7 +7539,7 @@
         <v>37.569377340000003</v>
       </c>
       <c r="E273" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -7545,7 +7547,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C274">
         <v>126.910223</v>
@@ -7554,7 +7556,7 @@
         <v>37.584231000000003</v>
       </c>
       <c r="E274" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -7562,7 +7564,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C275">
         <v>127.0159788</v>
@@ -7571,7 +7573,7 @@
         <v>37.571899000000002</v>
       </c>
       <c r="E275" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -7579,7 +7581,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C276">
         <v>126.8377796</v>
@@ -7588,7 +7590,7 @@
         <v>37.517435429999999</v>
       </c>
       <c r="E276" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -7596,7 +7598,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C277">
         <v>127.132465</v>
@@ -7605,7 +7607,7 @@
         <v>37.540433</v>
       </c>
       <c r="E277" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -7613,7 +7615,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C278">
         <v>37.610396999999999</v>
@@ -7622,7 +7624,7 @@
         <v>126.928713</v>
       </c>
       <c r="E278" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -7630,7 +7632,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C279">
         <v>126.9979752</v>
@@ -7639,7 +7641,7 @@
         <v>37.56559334</v>
       </c>
       <c r="E279" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -7647,7 +7649,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C280">
         <v>37.571674999999999</v>
@@ -7656,7 +7658,7 @@
         <v>127.011287</v>
       </c>
       <c r="E280" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -7664,7 +7666,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C281">
         <v>127.06086999999999</v>
@@ -7673,7 +7675,7 @@
         <v>37.597763</v>
       </c>
       <c r="E281" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -7681,7 +7683,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C282">
         <v>127.1264018</v>
@@ -7690,7 +7692,7 @@
         <v>37.545523250000002</v>
       </c>
       <c r="E282" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -7698,7 +7700,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C283">
         <v>37.557257999999997</v>
@@ -7707,7 +7709,7 @@
         <v>127.079432</v>
       </c>
       <c r="E283" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -7715,7 +7717,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C284">
         <v>37.570231</v>
@@ -7724,7 +7726,7 @@
         <v>127.036929</v>
       </c>
       <c r="E284" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -7732,7 +7734,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C285">
         <v>37.560127000000001</v>
@@ -7741,7 +7743,7 @@
         <v>127.013705</v>
       </c>
       <c r="E285" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -7749,7 +7751,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C286">
         <v>37.479311000000003</v>
@@ -7758,7 +7760,7 @@
         <v>126.985271</v>
       </c>
       <c r="E286" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -7766,7 +7768,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C287">
         <v>37.479295999999998</v>
@@ -7775,7 +7777,7 @@
         <v>126.94584399999999</v>
       </c>
       <c r="E287" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -7783,7 +7785,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C288">
         <v>37.488242999999997</v>
@@ -7792,7 +7794,7 @@
         <v>126.959042</v>
       </c>
       <c r="E288" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -7800,7 +7802,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C289">
         <v>37.538811000000003</v>
@@ -7809,7 +7811,7 @@
         <v>126.96170600000001</v>
       </c>
       <c r="E289" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -7817,7 +7819,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C290">
         <v>126.8453895</v>
@@ -7826,7 +7828,7 @@
         <v>37.545447809999999</v>
       </c>
       <c r="E290" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -7834,7 +7836,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C291">
         <v>126.81308</v>
@@ -7843,7 +7845,7 @@
         <v>37.561096999999997</v>
       </c>
       <c r="E291" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -7851,7 +7853,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C292">
         <v>37.565071000000003</v>
@@ -7860,7 +7862,7 @@
         <v>126.96620900000001</v>
       </c>
       <c r="E292" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -7868,7 +7870,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C293">
         <v>37.504500999999998</v>
@@ -7877,7 +7879,7 @@
         <v>127.04925</v>
       </c>
       <c r="E293" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -7885,7 +7887,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C294">
         <v>126.94641300000001</v>
@@ -7894,7 +7896,7 @@
         <v>37.539752999999997</v>
       </c>
       <c r="E294" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -7902,7 +7904,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C295">
         <v>126.96566199999999</v>
@@ -7911,7 +7913,7 @@
         <v>37.565064999999997</v>
       </c>
       <c r="E295" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -7919,7 +7921,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C296">
         <v>126.981478</v>
@@ -7928,7 +7930,7 @@
         <v>37.557079000000002</v>
       </c>
       <c r="E296" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -7936,7 +7938,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C297">
         <v>37.608705</v>
@@ -7945,7 +7947,7 @@
         <v>126.973004</v>
       </c>
       <c r="E297" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -7953,7 +7955,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C298">
         <v>127.11546800000001</v>
@@ -7962,7 +7964,7 @@
         <v>37.534878030000002</v>
       </c>
       <c r="E298" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -7970,7 +7972,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C299">
         <v>37.581460999999997</v>
@@ -7979,7 +7981,7 @@
         <v>126.96847099999999</v>
       </c>
       <c r="E299" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -7987,7 +7989,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C300">
         <v>127.03251299999999</v>
@@ -7996,7 +7998,7 @@
         <v>37.514536</v>
       </c>
       <c r="E300" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -8004,7 +8006,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C301">
         <v>37.534953000000002</v>
@@ -8013,7 +8015,7 @@
         <v>126.973142</v>
       </c>
       <c r="E301" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -8021,7 +8023,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C302">
         <v>37.661051</v>
@@ -8030,7 +8032,7 @@
         <v>127.07415899999999</v>
       </c>
       <c r="E302" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -8038,7 +8040,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C303">
         <v>37.538187999999998</v>
@@ -8047,7 +8049,7 @@
         <v>127.004339</v>
       </c>
       <c r="E303" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -8055,7 +8057,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C304">
         <v>37.542352999999999</v>
@@ -8064,7 +8066,7 @@
         <v>127.015849</v>
       </c>
       <c r="E304" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -8072,7 +8074,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C305">
         <v>127.0646198</v>
@@ -8081,7 +8083,7 @@
         <v>37.570479499999998</v>
       </c>
       <c r="E305" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -8089,7 +8091,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C306">
         <v>37.654279000000002</v>
@@ -8098,7 +8100,7 @@
         <v>127.046012</v>
       </c>
       <c r="E306" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -8106,7 +8108,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C307">
         <v>37.483901000000003</v>
@@ -8115,7 +8117,7 @@
         <v>126.954618</v>
       </c>
       <c r="E307" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -8123,7 +8125,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C308">
         <v>126.934164</v>
@@ -8132,7 +8134,7 @@
         <v>37.471263999999998</v>
       </c>
       <c r="E308" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -8140,7 +8142,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C309">
         <v>37.576237999999996</v>
@@ -8149,7 +8151,7 @@
         <v>126.930367</v>
       </c>
       <c r="E309" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -8157,7 +8159,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C310">
         <v>37.589573000000001</v>
@@ -8166,7 +8168,7 @@
         <v>126.943147</v>
       </c>
       <c r="E310" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -8174,7 +8176,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C311">
         <v>37.541482000000002</v>
@@ -8183,7 +8185,7 @@
         <v>126.83992000000001</v>
       </c>
       <c r="E311" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -8191,7 +8193,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C312">
         <v>126.989501</v>
@@ -8200,7 +8202,7 @@
         <v>37.539516999999996</v>
       </c>
       <c r="E312" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -8208,7 +8210,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C313">
         <v>126.98827559999999</v>
@@ -8217,7 +8219,7 @@
         <v>37.538854809999997</v>
       </c>
       <c r="E313" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -8225,7 +8227,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C314">
         <v>126.9873281</v>
@@ -8234,7 +8236,7 @@
         <v>37.477880730000003</v>
       </c>
       <c r="E314" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -8242,7 +8244,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C315">
         <v>126.95360599999999</v>
@@ -8251,7 +8253,7 @@
         <v>37.535497429999999</v>
       </c>
       <c r="E315" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -8259,7 +8261,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C316">
         <v>126.9780025</v>
@@ -8268,7 +8270,7 @@
         <v>37.548520809999999</v>
       </c>
       <c r="E316" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -8276,7 +8278,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C317">
         <v>127.06152760000001</v>
@@ -8285,7 +8287,7 @@
         <v>37.595695679999999</v>
       </c>
       <c r="E317" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -8293,7 +8295,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C318">
         <v>126.961026</v>
@@ -8302,7 +8304,7 @@
         <v>37.507907000000003</v>
       </c>
       <c r="E318" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
